--- a/Human-Consistency Study/IDmismatch_SPrankPos_sample100_1.xlsx
+++ b/Human-Consistency Study/IDmismatch_SPrankPos_sample100_1.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayili/Desktop/paper/third_work/大修/human_study_last/Human-Consistency Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47DDEE-CF8E-314C-A52F-9E8AF1A0A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319DC15-911A-A444-B2F3-CBE0077FF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="753">
   <si>
     <t>label</t>
   </si>
@@ -1997,13 +2009,295 @@
   </si>
   <si>
     <t>0.6873050928115845</t>
+  </si>
+  <si>
+    <t>original_image_path</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0952001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0541002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0299004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1472_c3s3_060353_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1243_c6s3_043642_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1380_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9007_s17891.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/657_45.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0382_c1s2_017841_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1478_c3s3_060603_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11805_s15365.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0623_c5s2_023505_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10816_s17028.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057328_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0875003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0858_c2s2_104907_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7916_s10606.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0330001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0661002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0515_c4s2_068373_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3236_s4143.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10570_s15515.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0769_c3s3_068844_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0284004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1821_s1874.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/982_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p1866_s1975.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0747_c2s3_067627_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9326_s15733.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/097_0.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3733_s4695.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0737003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0496001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057278_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c1s5_040541_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0255_c6s1_060126_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10078_s15234.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0299003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1212_s11866.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0884004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0337001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p3543_s4511.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0657003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1103_c3s2_149294_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/752_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/627_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11296_s12640.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1881_s2004.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013828_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0875_c3s2_108603_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0316003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0400_c3s1_094592_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p6318_s8277.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0776002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1453_c6s3_081467_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1093_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0580002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/752_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0800001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0966_c3s2_121419_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1257_c5s3_021415_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/826_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/461_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2642_s3361.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/579_0.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/961_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0580003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0541003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/241_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p35_s66.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1343_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/814_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013803_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/786_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5663_s7297.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0455_c2s1_115716_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p8054_s10762.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c5s3_014440_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/610_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/691_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/538_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1235_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11296_s12642.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0673002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/47_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0525_c1s3_022876_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/137_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0496003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1077_c3s2_143694_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/113_0.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11921_s12607.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9626_s16145.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2018,6 +2312,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2027,7 +2338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2035,12 +2346,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2343,11 +2673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2357,7 +2687,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2397,8 +2727,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2438,8 +2771,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2479,8 +2815,11 @@
       <c r="M3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2520,8 +2859,11 @@
       <c r="M4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2561,8 +2903,11 @@
       <c r="M5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2602,8 +2947,11 @@
       <c r="M6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2991,11 @@
       <c r="M7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2684,8 +3035,11 @@
       <c r="M8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2725,8 +3079,11 @@
       <c r="M9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2766,8 +3123,11 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2807,8 +3167,11 @@
       <c r="M11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2848,8 +3211,11 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2889,8 +3255,11 @@
       <c r="M13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2930,8 +3299,11 @@
       <c r="M14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2971,8 +3343,11 @@
       <c r="M15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3012,8 +3387,11 @@
       <c r="M16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -3053,8 +3431,11 @@
       <c r="M17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3094,8 +3475,11 @@
       <c r="M18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3135,8 +3519,11 @@
       <c r="M19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3176,8 +3563,11 @@
       <c r="M20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3217,8 +3607,11 @@
       <c r="M21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3258,8 +3651,11 @@
       <c r="M22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3299,8 +3695,11 @@
       <c r="M23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3340,8 +3739,11 @@
       <c r="M24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3381,8 +3783,11 @@
       <c r="M25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3422,8 +3827,11 @@
       <c r="M26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1">
+      <c r="N26" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3463,8 +3871,11 @@
       <c r="M27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3504,8 +3915,11 @@
       <c r="M28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3545,8 +3959,11 @@
       <c r="M29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3586,8 +4003,11 @@
       <c r="M30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -3627,8 +4047,11 @@
       <c r="M31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3668,8 +4091,11 @@
       <c r="M32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3709,8 +4135,11 @@
       <c r="M33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -3750,8 +4179,11 @@
       <c r="M34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -3791,8 +4223,11 @@
       <c r="M35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -3832,8 +4267,11 @@
       <c r="M36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3873,8 +4311,11 @@
       <c r="M37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3914,8 +4355,11 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3955,8 +4399,11 @@
       <c r="M39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3996,8 +4443,11 @@
       <c r="M40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -4037,8 +4487,11 @@
       <c r="M41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4078,8 +4531,11 @@
       <c r="M42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -4119,8 +4575,11 @@
       <c r="M43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -4160,8 +4619,11 @@
       <c r="M44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4201,8 +4663,11 @@
       <c r="M45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4242,8 +4707,11 @@
       <c r="M46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -4283,8 +4751,11 @@
       <c r="M47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -4324,8 +4795,11 @@
       <c r="M48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -4365,8 +4839,11 @@
       <c r="M49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -4406,8 +4883,11 @@
       <c r="M50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -4447,8 +4927,11 @@
       <c r="M51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4488,8 +4971,11 @@
       <c r="M52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -4529,8 +5015,11 @@
       <c r="M53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -4570,8 +5059,11 @@
       <c r="M54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -4611,8 +5103,11 @@
       <c r="M55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4652,8 +5147,11 @@
       <c r="M56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4693,8 +5191,11 @@
       <c r="M57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -4734,8 +5235,11 @@
       <c r="M58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -4775,8 +5279,11 @@
       <c r="M59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4816,8 +5323,11 @@
       <c r="M60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -4857,8 +5367,11 @@
       <c r="M61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -4898,8 +5411,11 @@
       <c r="M62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -4939,8 +5455,11 @@
       <c r="M63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -4980,8 +5499,11 @@
       <c r="M64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -5021,8 +5543,11 @@
       <c r="M65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -5062,8 +5587,11 @@
       <c r="M66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5103,8 +5631,11 @@
       <c r="M67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -5144,8 +5675,11 @@
       <c r="M68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -5185,8 +5719,11 @@
       <c r="M69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -5226,8 +5763,11 @@
       <c r="M70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -5267,8 +5807,11 @@
       <c r="M71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5308,8 +5851,11 @@
       <c r="M72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -5349,8 +5895,11 @@
       <c r="M73" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -5390,8 +5939,11 @@
       <c r="M74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5431,8 +5983,11 @@
       <c r="M75" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5472,8 +6027,11 @@
       <c r="M76" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -5513,8 +6071,11 @@
       <c r="M77" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5554,8 +6115,11 @@
       <c r="M78" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -5595,8 +6159,11 @@
       <c r="M79" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -5636,8 +6203,11 @@
       <c r="M80" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -5677,8 +6247,11 @@
       <c r="M81" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5718,8 +6291,11 @@
       <c r="M82" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>25</v>
       </c>
@@ -5759,8 +6335,11 @@
       <c r="M83" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -5800,8 +6379,11 @@
       <c r="M84" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -5841,8 +6423,11 @@
       <c r="M85" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -5882,8 +6467,11 @@
       <c r="M86" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -5923,8 +6511,11 @@
       <c r="M87" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -5964,8 +6555,11 @@
       <c r="M88" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -6005,8 +6599,11 @@
       <c r="M89" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -6046,8 +6643,11 @@
       <c r="M90" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -6087,8 +6687,11 @@
       <c r="M91" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -6128,8 +6731,11 @@
       <c r="M92" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6169,8 +6775,11 @@
       <c r="M93" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -6210,8 +6819,11 @@
       <c r="M94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -6251,8 +6863,11 @@
       <c r="M95" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -6292,8 +6907,11 @@
       <c r="M96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -6333,8 +6951,11 @@
       <c r="M97" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -6374,8 +6995,11 @@
       <c r="M98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -6415,8 +7039,11 @@
       <c r="M99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6456,8 +7083,11 @@
       <c r="M100" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -6496,6 +7126,9 @@
       </c>
       <c r="M101" t="s">
         <v>24</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/Human-Consistency Study/IDmismatch_SPrankPos_sample100_1.xlsx
+++ b/Human-Consistency Study/IDmismatch_SPrankPos_sample100_1.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayili/Desktop/paper/third_work/大修/human_study_last/Human-Consistency Study/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319DC15-911A-A444-B2F3-CBE0077FF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="652">
   <si>
     <t>label</t>
   </si>
@@ -55,9 +37,6 @@
     <t>retrieved_pid</t>
   </si>
   <si>
-    <t>image_path</t>
-  </si>
-  <si>
     <t>is_id_match</t>
   </si>
   <si>
@@ -73,6 +52,9 @@
     <t>category</t>
   </si>
   <si>
+    <t>original_image_path</t>
+  </si>
+  <si>
     <t>different</t>
   </si>
   <si>
@@ -94,9 +76,6 @@
     <t>12196</t>
   </si>
   <si>
-    <t>./pos_images/000__qPID-12271__gPID-12196__qIdx-1688__r-1__0952001.png</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -109,6 +88,9 @@
     <t>IDmismatch_SPrankPos</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0952001.png</t>
+  </si>
+  <si>
     <t>same</t>
   </si>
   <si>
@@ -130,12 +112,12 @@
     <t>12689</t>
   </si>
   <si>
-    <t>./pos_images/001__qPID-12161__gPID-12689__qIdx-983__r-5__0541002.png</t>
-  </si>
-  <si>
     <t>0.7401182651519775</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0541002.png</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -154,12 +136,12 @@
     <t>12543</t>
   </si>
   <si>
-    <t>./pos_images/002__qPID-12544__gPID-12543__qIdx-3274__r-7__0299004.png</t>
-  </si>
-  <si>
     <t>0.7162648439407349</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0299004.png</t>
+  </si>
+  <si>
     <t>003</t>
   </si>
   <si>
@@ -178,12 +160,12 @@
     <t>12868</t>
   </si>
   <si>
-    <t>./pos_images/003__qPID-12164__gPID-12868__qIdx-1008__r-10__1472_c3s3_060353_00.jpg</t>
-  </si>
-  <si>
     <t>0.7094252109527588</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1472_c3s3_060353_00.jpg</t>
+  </si>
+  <si>
     <t>004</t>
   </si>
   <si>
@@ -202,12 +184,12 @@
     <t>12172</t>
   </si>
   <si>
-    <t>./pos_images/004__qPID-12991__gPID-12172__qIdx-6074__r-2__1243_c6s3_043642_00.jpg</t>
-  </si>
-  <si>
     <t>0.7045131325721741</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1243_c6s3_043642_00.jpg</t>
+  </si>
+  <si>
     <t>005</t>
   </si>
   <si>
@@ -223,12 +205,12 @@
     <t>12954</t>
   </si>
   <si>
-    <t>./pos_images/005__qPID-12887__gPID-12954__qIdx-5432__r-7__1380_2.jpg</t>
-  </si>
-  <si>
     <t>0.7254002094268799</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1380_2.jpg</t>
+  </si>
+  <si>
     <t>006</t>
   </si>
   <si>
@@ -238,9 +220,6 @@
     <t>A man wearing a black jacket, black pants, white shoes and a black back pack.</t>
   </si>
   <si>
-    <t>./pos_images/006__qPID-12161__gPID-12689__qIdx-986__r-2__0541002.png</t>
-  </si>
-  <si>
     <t>0.7875910401344299</t>
   </si>
   <si>
@@ -265,12 +244,12 @@
     <t>12768</t>
   </si>
   <si>
-    <t>./pos_images/007__qPID-12739__gPID-12768__qIdx-4519__r-6__p9007_s17891.jpg</t>
-  </si>
-  <si>
     <t>0.6756139993667603</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9007_s17891.jpg</t>
+  </si>
+  <si>
     <t>008</t>
   </si>
   <si>
@@ -289,12 +268,12 @@
     <t>12688</t>
   </si>
   <si>
-    <t>./pos_images/008__qPID-12448__gPID-12688__qIdx-2741__r-3__657_45.bmp</t>
-  </si>
-  <si>
     <t>0.7469496726989746</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_a/657_45.bmp</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
@@ -310,12 +289,12 @@
     <t>12766</t>
   </si>
   <si>
-    <t>./pos_images/009__qPID-12208__gPID-12766__qIdx-1296__r-6__0382_c1s2_017841_00.jpg</t>
-  </si>
-  <si>
     <t>0.6834090948104858</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0382_c1s2_017841_00.jpg</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
@@ -331,12 +310,12 @@
     <t>12073</t>
   </si>
   <si>
-    <t>./pos_images/010__qPID-12129__gPID-12073__qIdx-781__r-2__1478_c3s3_060603_00.jpg</t>
-  </si>
-  <si>
     <t>0.863983690738678</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1478_c3s3_060603_00.jpg</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
@@ -352,12 +331,12 @@
     <t>12047</t>
   </si>
   <si>
-    <t>./pos_images/011__qPID-12084__gPID-12047__qIdx-509__r-5__p11805_s15365.jpg</t>
-  </si>
-  <si>
     <t>0.6514532566070557</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11805_s15365.jpg</t>
+  </si>
+  <si>
     <t>012</t>
   </si>
   <si>
@@ -370,12 +349,12 @@
     <t>12028</t>
   </si>
   <si>
-    <t>./pos_images/012__qPID-12766__gPID-12028__qIdx-4716__r-1__0623_c5s2_023505_00.jpg</t>
-  </si>
-  <si>
     <t>0.6597352623939514</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0623_c5s2_023505_00.jpg</t>
+  </si>
+  <si>
     <t>013</t>
   </si>
   <si>
@@ -394,12 +373,12 @@
     <t>12578</t>
   </si>
   <si>
-    <t>./pos_images/013__qPID-12855__gPID-12578__qIdx-5237__r-8__p10816_s17028.jpg</t>
-  </si>
-  <si>
     <t>0.7253553867340088</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10816_s17028.jpg</t>
+  </si>
+  <si>
     <t>014</t>
   </si>
   <si>
@@ -409,7 +388,7 @@
     <t xml:space="preserve">The man is wearing a purple shirt and long black pants. His sneakers are white and he has short black hair. </t>
   </si>
   <si>
-    <t>./pos_images/014__qPID-12073__gPID-12129__qIdx-421__r-2__1448_c3s3_057328_00.jpg</t>
+    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057328_00.jpg</t>
   </si>
   <si>
     <t>015</t>
@@ -430,12 +409,12 @@
     <t>12079</t>
   </si>
   <si>
-    <t>./pos_images/015__qPID-12876__gPID-12079__qIdx-5369__r-4__0875003.png</t>
-  </si>
-  <si>
     <t>0.7301326990127563</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0875003.png</t>
+  </si>
+  <si>
     <t>016</t>
   </si>
   <si>
@@ -451,12 +430,12 @@
     <t>12832</t>
   </si>
   <si>
-    <t>./pos_images/016__qPID-12558__gPID-12832__qIdx-3369__r-3__0858_c2s2_104907_00.jpg</t>
-  </si>
-  <si>
     <t>0.6576075553894043</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0858_c2s2_104907_00.jpg</t>
+  </si>
+  <si>
     <t>017</t>
   </si>
   <si>
@@ -472,12 +451,12 @@
     <t>12291</t>
   </si>
   <si>
-    <t>./pos_images/017__qPID-12314__gPID-12291__qIdx-1937__r-5__ p7916_s10606. jpg</t>
-  </si>
-  <si>
     <t>0.8378872871398926</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7916_s10606.jpg</t>
+  </si>
+  <si>
     <t>018</t>
   </si>
   <si>
@@ -493,12 +472,12 @@
     <t>12700</t>
   </si>
   <si>
-    <t>./pos_images/018__qPID-12221__gPID-12700__qIdx-1382__r-10__0330001.png</t>
-  </si>
-  <si>
     <t>0.6919508576393127</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0330001.png</t>
+  </si>
+  <si>
     <t>019</t>
   </si>
   <si>
@@ -514,12 +493,12 @@
     <t>12792</t>
   </si>
   <si>
-    <t>./pos_images/019__qPID-12637__gPID-12792__qIdx-3863__r-1__0661002.png</t>
-  </si>
-  <si>
     <t>0.7954476475715637</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0661002.png</t>
+  </si>
+  <si>
     <t>020</t>
   </si>
   <si>
@@ -535,12 +514,12 @@
     <t>12567</t>
   </si>
   <si>
-    <t>./pos_images/020__qPID-12093__gPID-12567__qIdx-553__r-3__0515_c4s2_068373_00.jpg</t>
-  </si>
-  <si>
     <t>0.7978955507278442</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0515_c4s2_068373_00.jpg</t>
+  </si>
+  <si>
     <t>021</t>
   </si>
   <si>
@@ -553,12 +532,12 @@
     <t>A man wearing a white and gray shirt, a pair of black pants and a pair of black shoes.</t>
   </si>
   <si>
-    <t>./pos_images/021__qPID-12074__gPID-12558__qIdx-429__r-1__p3236_s4143.jpg</t>
-  </si>
-  <si>
     <t>0.652942419052124</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3236_s4143.jpg</t>
+  </si>
+  <si>
     <t>022</t>
   </si>
   <si>
@@ -574,12 +553,12 @@
     <t>12511</t>
   </si>
   <si>
-    <t>./pos_images/022__qPID-12080__gPID-12511__qIdx-472__r-6__p10570_s15515.jpg</t>
-  </si>
-  <si>
     <t>0.6947474479675293</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10570_s15515.jpg</t>
+  </si>
+  <si>
     <t>023</t>
   </si>
   <si>
@@ -595,12 +574,12 @@
     <t>12582</t>
   </si>
   <si>
-    <t>./pos_images/023__qPID-12033__gPID-12582__qIdx-183__r-6__0769_c3s3_068844_00.jpg</t>
-  </si>
-  <si>
     <t>0.7062729597091675</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0769_c3s3_068844_00.jpg</t>
+  </si>
+  <si>
     <t>024</t>
   </si>
   <si>
@@ -619,12 +598,12 @@
     <t>12532</t>
   </si>
   <si>
-    <t>./pos_images/024__qPID-12746__gPID-12532__qIdx-4572__r-9__0284004.png</t>
-  </si>
-  <si>
     <t>0.6964081525802612</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0284004.png</t>
+  </si>
+  <si>
     <t>025</t>
   </si>
   <si>
@@ -640,12 +619,12 @@
     <t>12201</t>
   </si>
   <si>
-    <t>./pos_images/025__qPID-12453__gPID-12201__qIdx-2769__r-5__p1821_s1874.jpg</t>
-  </si>
-  <si>
     <t>0.6888679265975952</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1821_s1874.jpg</t>
+  </si>
+  <si>
     <t>026</t>
   </si>
   <si>
@@ -661,12 +640,12 @@
     <t>12503</t>
   </si>
   <si>
-    <t>./pos_images/026__qPID-12843__gPID-12503__qIdx-5161__r-4__982_2.jpg</t>
-  </si>
-  <si>
     <t>0.6771904230117798</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/982_2.jpg</t>
+  </si>
+  <si>
     <t>027</t>
   </si>
   <si>
@@ -682,12 +661,12 @@
     <t>12434</t>
   </si>
   <si>
-    <t>./pos_images/027__qPID-12092__gPID-12434__qIdx-547__r-8__p1849_s1941.jpg</t>
-  </si>
-  <si>
     <t>0.6933443546295166</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
+  </si>
+  <si>
     <t>028</t>
   </si>
   <si>
@@ -703,12 +682,12 @@
     <t>12810</t>
   </si>
   <si>
-    <t>./pos_images/028__qPID-12465__gPID-12810__qIdx-2838__r-4__p1866_s1975.jpg</t>
-  </si>
-  <si>
     <t>0.6550762057304382</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p1866_s1975.jpg</t>
+  </si>
+  <si>
     <t>029</t>
   </si>
   <si>
@@ -718,12 +697,12 @@
     <t>A gentleman wearing a black t-shirt, black shorts, a black headband and thong sandals has a backpack on his back.</t>
   </si>
   <si>
-    <t>./pos_images/029__qPID-12868__gPID-12991__qIdx-5324__r-7__0747_c2s3_067627_00.jpg</t>
-  </si>
-  <si>
     <t>0.671565055847168</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0747_c2s3_067627_00.jpg</t>
+  </si>
+  <si>
     <t>030</t>
   </si>
   <si>
@@ -733,9 +712,6 @@
     <t>A man wearing a black shirt with a white picture on his chest, a pair of black shorts and a pair of brown seos.</t>
   </si>
   <si>
-    <t>./pos_images/030__qPID-12991__gPID-12868__qIdx-6076__r-1__1472_c3s3_060353_00.jpg</t>
-  </si>
-  <si>
     <t>0.6966251730918884</t>
   </si>
   <si>
@@ -754,12 +730,12 @@
     <t>12864</t>
   </si>
   <si>
-    <t>./pos_images/031__qPID-12497__gPID-12864__qIdx-3005__r-3__p9326_s15733.jpg</t>
-  </si>
-  <si>
     <t>0.6935631036758423</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9326_s15733.jpg</t>
+  </si>
+  <si>
     <t>032</t>
   </si>
   <si>
@@ -775,12 +751,12 @@
     <t>12932</t>
   </si>
   <si>
-    <t>./pos_images/032__qPID-12691__gPID-12932__qIdx-4207__r-3__097_0.bmp</t>
-  </si>
-  <si>
     <t>0.785881519317627</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_a/097_0.bmp</t>
+  </si>
+  <si>
     <t>033</t>
   </si>
   <si>
@@ -793,9 +769,6 @@
     <t>A man with short black hair is wearing glasses, a watch, a grey t-shirt and tan shorts.</t>
   </si>
   <si>
-    <t>./pos_images/033__qPID-12494__gPID-12954__qIdx-2992__r-10__1380_2.jpg</t>
-  </si>
-  <si>
     <t>0.6564090251922607</t>
   </si>
   <si>
@@ -814,12 +787,12 @@
     <t>12618</t>
   </si>
   <si>
-    <t>./pos_images/034__qPID-12455__gPID-12618__qIdx-2781__r-3__p3733_s4695.jpg</t>
-  </si>
-  <si>
     <t>0.6573259830474854</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3733_s4695.jpg</t>
+  </si>
+  <si>
     <t>035</t>
   </si>
   <si>
@@ -835,12 +808,12 @@
     <t>12890</t>
   </si>
   <si>
-    <t>./pos_images/035__qPID-12911__gPID-12890__qIdx-5572__r-1__0737003.png</t>
-  </si>
-  <si>
     <t>0.670138955116272</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0737003.png</t>
+  </si>
+  <si>
     <t>036</t>
   </si>
   <si>
@@ -856,12 +829,12 @@
     <t>12998</t>
   </si>
   <si>
-    <t>./pos_images/036__qPID-12596__gPID-12998__qIdx-3621__r-8__0496001.png</t>
-  </si>
-  <si>
     <t>0.6518644690513611</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0496001.png</t>
+  </si>
+  <si>
     <t>037</t>
   </si>
   <si>
@@ -871,12 +844,12 @@
     <t>The woman is wearing a purple shirt with long sleeves.  Her pants are black and her tennis shoes are white.</t>
   </si>
   <si>
-    <t>./pos_images/037__qPID-12073__gPID-12129__qIdx-423__r-4__1448_c3s3_057278_00.jpg</t>
-  </si>
-  <si>
     <t>0.7965637445449829</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057278_00.jpg</t>
+  </si>
+  <si>
     <t>038</t>
   </si>
   <si>
@@ -889,12 +862,12 @@
     <t>12679</t>
   </si>
   <si>
-    <t>./pos_images/038__qPID-12832__gPID-12679__qIdx-5104__r-10__1224_c1s5_040541_00.jpg</t>
-  </si>
-  <si>
     <t>0.7023680210113525</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c1s5_040541_00.jpg</t>
+  </si>
+  <si>
     <t>039</t>
   </si>
   <si>
@@ -910,12 +883,12 @@
     <t>12701</t>
   </si>
   <si>
-    <t>./pos_images/039__qPID-12220__gPID-12701__qIdx-1376__r-10__0255_c6s1_060126_00.jpg</t>
-  </si>
-  <si>
     <t>0.7898790836334229</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0255_c6s1_060126_00.jpg</t>
+  </si>
+  <si>
     <t>040</t>
   </si>
   <si>
@@ -931,12 +904,12 @@
     <t>12474</t>
   </si>
   <si>
-    <t>./pos_images/040__qPID-12384__gPID-12474__qIdx-2353__r-10__p10078_s15234.jpg</t>
-  </si>
-  <si>
     <t>0.6594558954238892</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10078_s15234.jpg</t>
+  </si>
+  <si>
     <t>041</t>
   </si>
   <si>
@@ -949,12 +922,12 @@
     <t xml:space="preserve">This man is wearing a black and grey zip up jacket, a black shirt and black pants. His shoes are grey, black and white. </t>
   </si>
   <si>
-    <t>./pos_images/041__qPID-12604__gPID-12543__qIdx-3674__r-9__0299003.png</t>
-  </si>
-  <si>
     <t>0.7914772033691406</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0299003.png</t>
+  </si>
+  <si>
     <t>042</t>
   </si>
   <si>
@@ -970,12 +943,12 @@
     <t>12087</t>
   </si>
   <si>
-    <t>./pos_images/042__qPID-12251__gPID-12087__qIdx-1561__r-4__p1212_s11866.jpg</t>
-  </si>
-  <si>
     <t>0.6739469170570374</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1212_s11866.jpg</t>
+  </si>
+  <si>
     <t>043</t>
   </si>
   <si>
@@ -991,12 +964,12 @@
     <t>12363</t>
   </si>
   <si>
-    <t>./pos_images/043__qPID-12664__gPID-12363__qIdx-4037__r-6__0884004.png</t>
-  </si>
-  <si>
     <t>0.7265223264694214</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0884004.png</t>
+  </si>
+  <si>
     <t>044</t>
   </si>
   <si>
@@ -1006,12 +979,12 @@
     <t>The man is wearing dark pants and a dark blue jacket. He is wearing a backpack, and he is carrying something in his right hand. His shoes have white soles.</t>
   </si>
   <si>
-    <t>./pos_images/044__qPID-12998__gPID-12596__qIdx-6116__r-9__0337001.png</t>
-  </si>
-  <si>
     <t>0.6602391004562378</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0337001.png</t>
+  </si>
+  <si>
     <t>045</t>
   </si>
   <si>
@@ -1027,12 +1000,12 @@
     <t>12141</t>
   </si>
   <si>
-    <t>./pos_images/045__qPID-12392__gPID-12141__qIdx-2400__r-2__p3543_s4511.jpg</t>
-  </si>
-  <si>
     <t>0.7074757218360901</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p3543_s4511.jpg</t>
+  </si>
+  <si>
     <t>046</t>
   </si>
   <si>
@@ -1048,12 +1021,12 @@
     <t>12124</t>
   </si>
   <si>
-    <t>./pos_images/046__qPID-12617__gPID-12124__qIdx-3755__r-3__0657003.png</t>
-  </si>
-  <si>
     <t>0.7302786707878113</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0657003.png</t>
+  </si>
+  <si>
     <t>047</t>
   </si>
   <si>
@@ -1069,12 +1042,12 @@
     <t>12458</t>
   </si>
   <si>
-    <t>./pos_images/047__qPID-12586__gPID-12458__qIdx-3552__r-7__1103_c3s2_149294_00.jpg</t>
-  </si>
-  <si>
     <t>0.661001443862915</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1103_c3s2_149294_00.jpg</t>
+  </si>
+  <si>
     <t>048</t>
   </si>
   <si>
@@ -1087,9 +1060,6 @@
     <t>The man is wearing pants, white tennis shoes and a short sleeved striped shirt. He is carrying a bag on his shoulder.</t>
   </si>
   <si>
-    <t>./pos_images/048__qPID-12994__gPID-12201__qIdx-6096__r-7__p1821_s1874.jpg</t>
-  </si>
-  <si>
     <t>0.6870733499526978</t>
   </si>
   <si>
@@ -1108,12 +1078,12 @@
     <t>12177</t>
   </si>
   <si>
-    <t>./pos_images/049__qPID-12769__gPID-12177__qIdx-4737__r-7__752_3.jpg</t>
-  </si>
-  <si>
     <t>0.716943621635437</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/752_3.jpg</t>
+  </si>
+  <si>
     <t>050</t>
   </si>
   <si>
@@ -1129,12 +1099,12 @@
     <t>12667</t>
   </si>
   <si>
-    <t>./pos_images/050__qPID-12106__gPID-12667__qIdx-642__r-7__627_2.jpg</t>
-  </si>
-  <si>
     <t>0.6805969476699829</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/627_2.jpg</t>
+  </si>
+  <si>
     <t>051</t>
   </si>
   <si>
@@ -1150,12 +1120,12 @@
     <t>12149</t>
   </si>
   <si>
-    <t>./pos_images/051__qPID-12951__gPID-12149__qIdx-5848__r-2__p11296_s12640.jpg</t>
-  </si>
-  <si>
     <t>0.6785994172096252</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11296_s12640.jpg</t>
+  </si>
+  <si>
     <t>052</t>
   </si>
   <si>
@@ -1168,12 +1138,12 @@
     <t>A woman wearing a gray shirt with black spots, a pair of black pants and a pair of black and white shoes.</t>
   </si>
   <si>
-    <t>./pos_images/052__qPID-12526__gPID-12465__qIdx-3174__r-7__p1881_s2004.jpg</t>
-  </si>
-  <si>
     <t>0.6765772104263306</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1881_s2004.jpg</t>
+  </si>
+  <si>
     <t>053</t>
   </si>
   <si>
@@ -1186,12 +1156,12 @@
     <t>The man has a grey and white striped shirt on.  He also has on black pants and black shoes with a carry bag strapped around his shoulder.</t>
   </si>
   <si>
-    <t>./pos_images/053__qPID-12796__gPID-12679__qIdx-4905__r-3__1224_c3s3_013828_00.jpg</t>
-  </si>
-  <si>
     <t>0.719237208366394</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013828_00.jpg</t>
+  </si>
+  <si>
     <t>054</t>
   </si>
   <si>
@@ -1207,12 +1177,12 @@
     <t>12921</t>
   </si>
   <si>
-    <t>./pos_images/054__qPID-12827__gPID-12921__qIdx-5075__r-10__0875_c3s2_108603_00.jpg</t>
-  </si>
-  <si>
     <t>0.714736819267273</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0875_c3s2_108603_00.jpg</t>
+  </si>
+  <si>
     <t>055</t>
   </si>
   <si>
@@ -1228,12 +1198,12 @@
     <t>12250</t>
   </si>
   <si>
-    <t>./pos_images/055__qPID-12354__gPID-12250__qIdx-2172__r-7__0316003.png</t>
-  </si>
-  <si>
     <t>0.688507080078125</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0316003.png</t>
+  </si>
+  <si>
     <t>056</t>
   </si>
   <si>
@@ -1246,12 +1216,12 @@
     <t>12211</t>
   </si>
   <si>
-    <t>./pos_images/056__qPID-12701__gPID-12211__qIdx-4269__r-2__0400_c3s1_094592_00.jpg</t>
-  </si>
-  <si>
     <t>0.8242614269256592</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0400_c3s1_094592_00.jpg</t>
+  </si>
+  <si>
     <t>057</t>
   </si>
   <si>
@@ -1267,12 +1237,12 @@
     <t>12542</t>
   </si>
   <si>
-    <t>./pos_images/057__qPID-12724__gPID-12542__qIdx-4420__r-2__p6318_s8277.jpg</t>
-  </si>
-  <si>
     <t>0.6864776611328125</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p6318_s8277.jpg</t>
+  </si>
+  <si>
     <t>058</t>
   </si>
   <si>
@@ -1282,12 +1252,12 @@
     <t>The woman has black medium length hair with a bang heavily angled to one side. She is wearing a black hoodie with white writing, black pants, and tall light brown/tan winter boots. She is carrying papers in her hand and a black bag on her shoulder.</t>
   </si>
   <si>
-    <t>./pos_images/058__qPID-12196__gPID-12271__qIdx-1215__r-6__0776002.png</t>
-  </si>
-  <si>
     <t>0.7080792188644409</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0776002.png</t>
+  </si>
+  <si>
     <t>059</t>
   </si>
   <si>
@@ -1300,12 +1270,12 @@
     <t>12536</t>
   </si>
   <si>
-    <t>./pos_images/059__qPID-12868__gPID-12536__qIdx-5326__r-2__1453_c6s3_081467_00.jpg</t>
-  </si>
-  <si>
     <t>0.6525083780288696</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1453_c6s3_081467_00.jpg</t>
+  </si>
+  <si>
     <t>060</t>
   </si>
   <si>
@@ -1321,12 +1291,12 @@
     <t>12267</t>
   </si>
   <si>
-    <t>./pos_images/060__qPID-12231__gPID-12267__qIdx-1435__r-10__1093_3.jpg</t>
-  </si>
-  <si>
     <t>0.6650580167770386</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1093_3.jpg</t>
+  </si>
+  <si>
     <t>061</t>
   </si>
   <si>
@@ -1342,21 +1312,21 @@
     <t>12361</t>
   </si>
   <si>
-    <t>./pos_images/061__qPID-12325__gPID-12361__qIdx-2006__r-7__0580002.png</t>
-  </si>
-  <si>
     <t>0.7593590021133423</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0580002.png</t>
+  </si>
+  <si>
     <t>062</t>
   </si>
   <si>
-    <t>./pos_images/062__qPID-12769__gPID-12177__qIdx-4737__r-1__752_2.jpg</t>
-  </si>
-  <si>
     <t>0.7006612420082092</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/752_2.jpg</t>
+  </si>
+  <si>
     <t>063</t>
   </si>
   <si>
@@ -1369,12 +1339,12 @@
     <t>The individual is a young adult female with long black hair wearing black shoes black trousers orange oversized sweater and carrying a large grey purse</t>
   </si>
   <si>
-    <t>./pos_images/063__qPID-12716__gPID-12876__qIdx-4365__r-7__0800001.png</t>
-  </si>
-  <si>
     <t>0.7376481890678406</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0800001.png</t>
+  </si>
+  <si>
     <t>064</t>
   </si>
   <si>
@@ -1387,12 +1357,12 @@
     <t>She has long black hair worn in a ponytail and is wearing a long white t-shirt, jeans, sneakers with pink laces and is carrying a black briefcase.</t>
   </si>
   <si>
-    <t>./pos_images/064__qPID-12976__gPID-12586__qIdx-5980__r-5__0966_c3s2_121419_00.jpg</t>
-  </si>
-  <si>
     <t>0.6662843227386475</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0966_c3s2_121419_00.jpg</t>
+  </si>
+  <si>
     <t>065</t>
   </si>
   <si>
@@ -1402,12 +1372,12 @@
     <t>The man is wearing black flip-flops with a pair of dark grey shorts that reach just below his knees. He has on a grey tee-shirt with a white logo on the back. He has a black backpack on his back.</t>
   </si>
   <si>
-    <t>./pos_images/065__qPID-12093__gPID-12208__qIdx-551__r-3__1257_c5s3_021415_00.jpg</t>
-  </si>
-  <si>
     <t>0.6632454991340637</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1257_c5s3_021415_00.jpg</t>
+  </si>
+  <si>
     <t>066</t>
   </si>
   <si>
@@ -1423,12 +1393,12 @@
     <t>12471</t>
   </si>
   <si>
-    <t>./pos_images/066__qPID-12928__gPID-12471__qIdx-5698__r-8__826_4.jpg</t>
-  </si>
-  <si>
     <t>0.6923443078994751</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/826_4.jpg</t>
+  </si>
+  <si>
     <t>067</t>
   </si>
   <si>
@@ -1444,12 +1414,12 @@
     <t>12704</t>
   </si>
   <si>
-    <t>./pos_images/067__qPID-12122__gPID-12704__qIdx-733__r-5__461_1.jpg</t>
-  </si>
-  <si>
     <t>0.6611279845237732</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/461_1.jpg</t>
+  </si>
+  <si>
     <t>068</t>
   </si>
   <si>
@@ -1465,12 +1435,12 @@
     <t>12699</t>
   </si>
   <si>
-    <t>./pos_images/068__qPID-12623__gPID-12699__qIdx-3788__r-6__p2642_s3361.jpg</t>
-  </si>
-  <si>
     <t>0.6731586456298828</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2642_s3361.jpg</t>
+  </si>
+  <si>
     <t>069</t>
   </si>
   <si>
@@ -1486,12 +1456,12 @@
     <t>12847</t>
   </si>
   <si>
-    <t>./pos_images/069__qPID-12770__gPID-12847__qIdx-4740__r-3__579_0.bmp</t>
-  </si>
-  <si>
     <t>0.7026482224464417</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_a/579_0.bmp</t>
+  </si>
+  <si>
     <t>070</t>
   </si>
   <si>
@@ -1507,12 +1477,12 @@
     <t>12403</t>
   </si>
   <si>
-    <t>./pos_images/070__qPID-12345__gPID-12403__qIdx-2125__r-5__961_4.jpg</t>
-  </si>
-  <si>
     <t>0.6971719264984131</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/961_4.jpg</t>
+  </si>
+  <si>
     <t>071</t>
   </si>
   <si>
@@ -1525,12 +1495,12 @@
     <t>The man is wearing a black and red sweatshirt and glasses while carrying a black bag.</t>
   </si>
   <si>
-    <t>./pos_images/071__qPID-12333__gPID-12361__qIdx-2062__r-5__0580003.png</t>
-  </si>
-  <si>
     <t>0.6805640459060669</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0580003.png</t>
+  </si>
+  <si>
     <t>072</t>
   </si>
   <si>
@@ -1540,12 +1510,12 @@
     <t xml:space="preserve">A man carrying a black back pack on his back wearing a black jacket with black pants and shoes is walking in the opposite direction. </t>
   </si>
   <si>
-    <t>./pos_images/072__qPID-12998__gPID-12689__qIdx-6120__r-7__0541003.png</t>
-  </si>
-  <si>
     <t>0.6663050651550293</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0541003.png</t>
+  </si>
+  <si>
     <t>073</t>
   </si>
   <si>
@@ -1561,12 +1531,12 @@
     <t>12292</t>
   </si>
   <si>
-    <t>./pos_images/073__qPID-12486__gPID-12292__qIdx-2947__r-3__241_4.jpg</t>
-  </si>
-  <si>
     <t>0.715363621711731</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/241_4.jpg</t>
+  </si>
+  <si>
     <t>074</t>
   </si>
   <si>
@@ -1582,12 +1552,12 @@
     <t>12837</t>
   </si>
   <si>
-    <t>./pos_images/074__qPID-12041__gPID-12837__qIdx-240__r-10__p35_s66.jpg</t>
-  </si>
-  <si>
     <t>0.6539386510848999</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p35_s66.jpg</t>
+  </si>
+  <si>
     <t>075</t>
   </si>
   <si>
@@ -1603,12 +1573,12 @@
     <t>12807</t>
   </si>
   <si>
-    <t>./pos_images/075__qPID-12418__gPID-12807__qIdx-2553__r-8__1343_4.jpg</t>
-  </si>
-  <si>
     <t>0.6545620560646057</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1343_4.jpg</t>
+  </si>
+  <si>
     <t>076</t>
   </si>
   <si>
@@ -1618,21 +1588,21 @@
     <t>A man with short black hair is wearing a short sleeved grey t-shirt, tan shorts and brown shoes.</t>
   </si>
   <si>
-    <t>./pos_images/076__qPID-12494__gPID-12418__qIdx-2995__r-7__814_4.jpg</t>
-  </si>
-  <si>
     <t>0.8075220584869385</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/814_4.jpg</t>
+  </si>
+  <si>
     <t>077</t>
   </si>
   <si>
-    <t>./pos_images/077__qPID-12796__gPID-12679__qIdx-4905__r-5__1224_c3s3_013803_00.jpg</t>
-  </si>
-  <si>
     <t>0.6585032939910889</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013803_00.jpg</t>
+  </si>
+  <si>
     <t>078</t>
   </si>
   <si>
@@ -1642,9 +1612,6 @@
     <t>The young man is wearing black pants, a black jacket, black and white sneakers and a black and white book bag.</t>
   </si>
   <si>
-    <t>./pos_images/078__qPID-12689__gPID-12998__qIdx-4198__r-10__0496001.png</t>
-  </si>
-  <si>
     <t>0.7340540885925293</t>
   </si>
   <si>
@@ -1657,12 +1624,12 @@
     <t>Man is wearing a sweater with black, gray and white stripes on it. He is wearing tan pants and gray shoes. He is carrying a bag on his back.</t>
   </si>
   <si>
-    <t>./pos_images/079__qPID-12700__gPID-12221__qIdx-4264__r-4__786_3.jpg</t>
-  </si>
-  <si>
     <t>0.7463408708572388</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/786_3.jpg</t>
+  </si>
+  <si>
     <t>080</t>
   </si>
   <si>
@@ -1675,12 +1642,12 @@
     <t>The woman wears a grey shirt with a white triangle pattern. She wears black pants, black shoes, and carries a purple purse in one hand.</t>
   </si>
   <si>
-    <t>./pos_images/080__qPID-12902__gPID-12526__qIdx-5521__r-8__p5663_s7297.jpg</t>
-  </si>
-  <si>
     <t>0.6926805973052979</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5663_s7297.jpg</t>
+  </si>
+  <si>
     <t>081</t>
   </si>
   <si>
@@ -1690,12 +1657,12 @@
     <t>This guy is wearing a white V neck shirt, light colored shorts, has black hair, and is wearing a backpack.</t>
   </si>
   <si>
-    <t>./pos_images/081__qPID-12567__gPID-12093__qIdx-3429__r-7__0455_c2s1_115716_00.jpg</t>
-  </si>
-  <si>
     <t>0.7479984164237976</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0455_c2s1_115716_00.jpg</t>
+  </si>
+  <si>
     <t>082</t>
   </si>
   <si>
@@ -1711,12 +1678,12 @@
     <t>12665</t>
   </si>
   <si>
-    <t>./pos_images/082__qPID-12020__gPID-12665__qIdx-116__r-3__p8054_s10762.jpg</t>
-  </si>
-  <si>
     <t>0.6744824647903442</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p8054_s10762.jpg</t>
+  </si>
+  <si>
     <t>083</t>
   </si>
   <si>
@@ -1726,12 +1693,12 @@
     <t>The man is walking and he is wearing a light and dark grey shirt with blsck pants and black shoes.He is also carrying a black small shoulder bag</t>
   </si>
   <si>
-    <t>./pos_images/083__qPID-12796__gPID-12679__qIdx-4899__r-2__1224_c5s3_014440_00.jpg</t>
-  </si>
-  <si>
     <t>0.8089816570281982</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c5s3_014440_00.jpg</t>
+  </si>
+  <si>
     <t>084</t>
   </si>
   <si>
@@ -1744,12 +1711,12 @@
     <t>12634</t>
   </si>
   <si>
-    <t>./pos_images/084__qPID-12403__gPID-12634__qIdx-2457__r-2__610_1.jpg</t>
-  </si>
-  <si>
     <t>0.7800066471099854</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/610_1.jpg</t>
+  </si>
+  <si>
     <t>085</t>
   </si>
   <si>
@@ -1765,12 +1732,12 @@
     <t>12556</t>
   </si>
   <si>
-    <t>./pos_images/085__qPID-12445__gPID-12556__qIdx-2720__r-7__691_3.jpg</t>
-  </si>
-  <si>
     <t>0.7525725364685059</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/691_3.jpg</t>
+  </si>
+  <si>
     <t>086</t>
   </si>
   <si>
@@ -1780,12 +1747,12 @@
     <t>THE MAN WEARS A PLAID SHIRT AND JEANS WITH WHITES SHOES. HE ALSO HAS A HAT AND SUNGLASSES.</t>
   </si>
   <si>
-    <t>./pos_images/086__qPID-12847__gPID-12770__qIdx-5184__r-6__538_90.bmp</t>
-  </si>
-  <si>
     <t>0.6704614162445068</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_b/538_90.bmp</t>
+  </si>
+  <si>
     <t>087</t>
   </si>
   <si>
@@ -1798,12 +1765,12 @@
     <t>12446</t>
   </si>
   <si>
-    <t>./pos_images/087__qPID-12221__gPID-12446__qIdx-1381__r-3__1235_4.jpg</t>
-  </si>
-  <si>
     <t>0.7725161910057068</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1235_4.jpg</t>
+  </si>
+  <si>
     <t>088</t>
   </si>
   <si>
@@ -1813,12 +1780,12 @@
     <t>A man with short dark hair wearing blue jeans, black shoes, and a white shirt walking away from the camera.</t>
   </si>
   <si>
-    <t>./pos_images/088__qPID-12951__gPID-12149__qIdx-5851__r-4__p11296_s12642.jpg</t>
-  </si>
-  <si>
     <t>0.6878535747528076</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11296_s12642.jpg</t>
+  </si>
+  <si>
     <t>089</t>
   </si>
   <si>
@@ -1834,12 +1801,12 @@
     <t>12817</t>
   </si>
   <si>
-    <t>./pos_images/089__qPID-12711__gPID-12817__qIdx-4332__r-10__0673002.png</t>
-  </si>
-  <si>
     <t>0.673350989818573</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0673002.png</t>
+  </si>
+  <si>
     <t>090</t>
   </si>
   <si>
@@ -1852,12 +1819,12 @@
     <t>12273</t>
   </si>
   <si>
-    <t>./pos_images/090__qPID-12418__gPID-12273__qIdx-2554__r-9__47_2.jpg</t>
-  </si>
-  <si>
     <t>0.7958090305328369</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/47_2.jpg</t>
+  </si>
+  <si>
     <t>091</t>
   </si>
   <si>
@@ -1870,9 +1837,6 @@
     <t>A girl with a ponytail wearing a black jacket with blue denim pants and snekers carrying a shoulder satchel.</t>
   </si>
   <si>
-    <t>./pos_images/091__qPID-12825__gPID-12177__qIdx-5062__r-4__752_2.jpg</t>
-  </si>
-  <si>
     <t>0.6614605188369751</t>
   </si>
   <si>
@@ -1888,9 +1852,6 @@
     <t>A man wearing a white shirt, a pair of black shorts and a pair of black and white shoes.</t>
   </si>
   <si>
-    <t>./pos_images/092__qPID-12970__gPID-12837__qIdx-5950__r-2__p35_s66.jpg</t>
-  </si>
-  <si>
     <t>0.7114688158035278</t>
   </si>
   <si>
@@ -1900,24 +1861,24 @@
     <t>12308</t>
   </si>
   <si>
-    <t>./pos_images/093__qPID-12701__gPID-12308__qIdx-4269__r-5__0525_c1s3_022876_00.jpg</t>
-  </si>
-  <si>
     <t>0.7067626714706421</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0525_c1s3_022876_00.jpg</t>
+  </si>
+  <si>
     <t>094</t>
   </si>
   <si>
     <t>12899</t>
   </si>
   <si>
-    <t>./pos_images/094__qPID-12691__gPID-12899__qIdx-4207__r-8__137_90.bmp</t>
-  </si>
-  <si>
     <t>0.8106733560562134</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_b/137_90.bmp</t>
+  </si>
+  <si>
     <t>095</t>
   </si>
   <si>
@@ -1930,12 +1891,12 @@
     <t>This person has short dark hair and wears a dark colored track suit with white stripe as well as a book bag and white tennis shoes.</t>
   </si>
   <si>
-    <t>./pos_images/095__qPID-12505__gPID-12998__qIdx-3053__r-3__0496003.png</t>
-  </si>
-  <si>
     <t>0.7689212560653687</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0496003.png</t>
+  </si>
+  <si>
     <t>096</t>
   </si>
   <si>
@@ -1951,12 +1912,12 @@
     <t>12778</t>
   </si>
   <si>
-    <t>./pos_images/096__qPID-12180__gPID-12778__qIdx-1107__r-3__1077_c3s2_143694_00.jpg</t>
-  </si>
-  <si>
     <t>0.7672483921051025</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1077_c3s2_143694_00.jpg</t>
+  </si>
+  <si>
     <t>097</t>
   </si>
   <si>
@@ -1966,12 +1927,12 @@
     <t>Man walks forward in profile with head extending forward over front of body, and takes step forward with straight right leg. He carries curved, flat, black backpack over back. He wears a dark jacket with curved hem over the right side, light-blue jeans and white shoes.</t>
   </si>
   <si>
-    <t>./pos_images/097__qPID-12899__gPID-12691__qIdx-5507__r-4__113_0.bmp</t>
-  </si>
-  <si>
     <t>0.7532166242599487</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_a/113_0.bmp</t>
+  </si>
+  <si>
     <t>098</t>
   </si>
   <si>
@@ -1984,12 +1945,12 @@
     <t>12969</t>
   </si>
   <si>
-    <t>./pos_images/098__qPID-12084__gPID-12969__qIdx-504__r-4__p11921_s12607.jpg</t>
-  </si>
-  <si>
     <t>0.6801230907440186</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11921_s12607.jpg</t>
+  </si>
+  <si>
     <t>099</t>
   </si>
   <si>
@@ -2005,289 +1966,7 @@
     <t>12186</t>
   </si>
   <si>
-    <t>./pos_images/099__qPID-12492__gPID-12186__qIdx-2984__r-5__p9626_s16145.jpg</t>
-  </si>
-  <si>
     <t>0.6873050928115845</t>
-  </si>
-  <si>
-    <t>original_image_path</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0952001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0541002.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0299004.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1472_c3s3_060353_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1243_c6s3_043642_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1380_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9007_s17891.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_a/657_45.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0382_c1s2_017841_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1478_c3s3_060603_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p11805_s15365.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0623_c5s2_023505_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p10816_s17028.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057328_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0875003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0858_c2s2_104907_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p7916_s10606.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0330001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0661002.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0515_c4s2_068373_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p3236_s4143.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10570_s15515.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0769_c3s3_068844_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0284004.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1821_s1874.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/982_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p1866_s1975.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0747_c2s3_067627_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9326_s15733.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_a/097_0.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p3733_s4695.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0737003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0496001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057278_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1224_c1s5_040541_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0255_c6s1_060126_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10078_s15234.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0299003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1212_s11866.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0884004.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0337001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p3543_s4511.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0657003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1103_c3s2_149294_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/752_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/627_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p11296_s12640.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1881_s2004.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013828_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0875_c3s2_108603_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0316003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0400_c3s1_094592_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p6318_s8277.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0776002.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1453_c6s3_081467_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1093_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0580002.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/752_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0800001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0966_c3s2_121419_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1257_c5s3_021415_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/826_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/461_1.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p2642_s3361.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_a/579_0.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/961_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0580003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0541003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/241_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p35_s66.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1343_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/814_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013803_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/786_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p5663_s7297.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0455_c2s1_115716_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p8054_s10762.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1224_c5s3_014440_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/610_1.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/691_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_b/538_90.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1235_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p11296_s12642.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0673002.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/47_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0525_c1s3_022876_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_b/137_90.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0496003.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1077_c3s2_143694_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_a/113_0.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p11921_s12607.jpg</t>
   </si>
   <si>
     <t>./CUHK-PEDES/imgs/test_query/p9626_s16145.jpg</t>
@@ -2296,8 +1975,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2306,18 +1991,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2325,20 +2002,349 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2361,28 +2367,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2667,27 +2959,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="76.33203125" customWidth="1"/>
+    <col min="5" max="5" width="76.3365384615385" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2724,14 +3017,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2757,25 +3047,22 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2798,28 +3085,25 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2842,28 +3126,25 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2886,28 +3167,25 @@
         <v>47</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2930,28 +3208,25 @@
         <v>55</v>
       </c>
       <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2974,28 +3249,25 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>63</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3018,1010 +3290,941 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
         <v>98</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
         <v>111</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
         <v>119</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
         <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>124</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>125</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>126</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>127</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>129</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>130</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
         <v>131</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>135</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>136</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
         <v>137</v>
       </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>138</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
         <v>141</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>142</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>143</v>
-      </c>
-      <c r="E19" t="s">
-        <v>144</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
       </c>
       <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
         <v>145</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
         <v>148</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>149</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>150</v>
-      </c>
-      <c r="E20" t="s">
-        <v>151</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
       </c>
       <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
         <v>152</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>157</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>158</v>
       </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
         <v>159</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
         <v>162</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>163</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>164</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
         <v>165</v>
       </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
         <v>166</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>168</v>
-      </c>
-      <c r="L22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
         <v>169</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>170</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>171</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
         <v>172</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>176</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>177</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
         <v>178</v>
       </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
         <v>179</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
         <v>182</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>183</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>184</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
         <v>185</v>
       </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
         <v>186</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
         <v>189</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>190</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>191</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>192</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>193</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
         <v>194</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>196</v>
-      </c>
-      <c r="L26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16" customHeight="1">
+    </row>
+    <row r="27" ht="16" customHeight="1" spans="1:13">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" t="s">
         <v>197</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>198</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>199</v>
-      </c>
-      <c r="E27" t="s">
-        <v>200</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
         <v>201</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>203</v>
-      </c>
-      <c r="L27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" t="s">
         <v>204</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>205</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>206</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
         <v>207</v>
       </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
         <v>208</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>210</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
         <v>211</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>212</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>213</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
         <v>214</v>
       </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
         <v>215</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>217</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" t="s">
         <v>218</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>219</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>220</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
         <v>222</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
         <v>224</v>
       </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>225</v>
-      </c>
-      <c r="C31" t="s">
-        <v>226</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -4030,42 +4233,39 @@
         <v>52</v>
       </c>
       <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
         <v>230</v>
-      </c>
-      <c r="C32" t="s">
-        <v>231</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -4074,130 +4274,121 @@
         <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
       </c>
-      <c r="M32" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" t="s">
         <v>235</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>236</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
         <v>237</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
         <v>238</v>
       </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H33" t="s">
-        <v>240</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" t="s">
         <v>242</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>243</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
         <v>244</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
         <v>245</v>
       </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H34" t="s">
-        <v>247</v>
-      </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" t="s">
-        <v>248</v>
-      </c>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
         <v>249</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>250</v>
-      </c>
-      <c r="D35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" t="s">
-        <v>252</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
@@ -4206,1714 +4397,1597 @@
         <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" t="s">
         <v>255</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s">
         <v>256</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
         <v>257</v>
       </c>
-      <c r="E36" t="s">
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H36" t="s">
-        <v>260</v>
-      </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>261</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" t="s">
         <v>262</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="D37" t="s">
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
         <v>264</v>
       </c>
-      <c r="E37" t="s">
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
         <v>266</v>
       </c>
-      <c r="H37" t="s">
+      <c r="C38" t="s">
         <v>267</v>
       </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="D38" t="s">
         <v>268</v>
       </c>
-      <c r="L37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>269</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
         <v>270</v>
       </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
         <v>271</v>
       </c>
-      <c r="E38" t="s">
+      <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" t="s">
-        <v>273</v>
-      </c>
-      <c r="H38" t="s">
-        <v>274</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>275</v>
-      </c>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
         <v>276</v>
       </c>
-      <c r="C39" t="s">
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" t="s">
-        <v>278</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" t="s">
-        <v>279</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>280</v>
-      </c>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" t="s">
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H40" t="s">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
       </c>
-      <c r="M40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="M40" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>25</v>
       </c>
       <c r="B41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" t="s">
         <v>287</v>
-      </c>
-      <c r="C41" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" t="s">
-        <v>290</v>
       </c>
       <c r="F41" t="s">
         <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H41" t="s">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
       </c>
-      <c r="M41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="M41" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" t="s">
         <v>294</v>
-      </c>
-      <c r="C42" t="s">
-        <v>295</v>
-      </c>
-      <c r="D42" t="s">
-        <v>296</v>
-      </c>
-      <c r="E42" t="s">
-        <v>297</v>
       </c>
       <c r="F42" t="s">
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H42" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="M42" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" t="s">
+        <v>300</v>
+      </c>
+      <c r="E43" t="s">
         <v>301</v>
       </c>
-      <c r="C43" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" t="s">
-        <v>304</v>
-      </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
       </c>
       <c r="H43" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="M43" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>25</v>
       </c>
       <c r="B44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" t="s">
         <v>307</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
         <v>308</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
         <v>309</v>
       </c>
-      <c r="E44" t="s">
+      <c r="K44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" t="s">
-        <v>311</v>
-      </c>
-      <c r="H44" t="s">
-        <v>312</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>313</v>
-      </c>
-      <c r="L44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>25</v>
       </c>
       <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" t="s">
         <v>314</v>
       </c>
-      <c r="C45" t="s">
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
         <v>315</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
         <v>316</v>
       </c>
-      <c r="E45" t="s">
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" t="s">
-        <v>318</v>
-      </c>
-      <c r="H45" t="s">
-        <v>319</v>
-      </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" t="s">
-        <v>320</v>
-      </c>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
         <v>321</v>
       </c>
-      <c r="C46" t="s">
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D46" t="s">
-        <v>273</v>
-      </c>
-      <c r="E46" t="s">
-        <v>323</v>
-      </c>
-      <c r="F46" t="s">
-        <v>193</v>
-      </c>
-      <c r="G46" t="s">
-        <v>271</v>
-      </c>
-      <c r="H46" t="s">
-        <v>324</v>
-      </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" t="s">
-        <v>325</v>
-      </c>
-      <c r="L46" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>25</v>
       </c>
       <c r="B47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" t="s">
         <v>326</v>
-      </c>
-      <c r="C47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" t="s">
-        <v>328</v>
-      </c>
-      <c r="E47" t="s">
-        <v>329</v>
       </c>
       <c r="F47" t="s">
         <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H47" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="M47" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" t="s">
+        <v>331</v>
+      </c>
+      <c r="D48" t="s">
+        <v>332</v>
+      </c>
+      <c r="E48" t="s">
         <v>333</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
         <v>334</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
         <v>335</v>
       </c>
-      <c r="E48" t="s">
+      <c r="K48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" t="s">
-        <v>337</v>
-      </c>
-      <c r="H48" t="s">
-        <v>338</v>
-      </c>
-      <c r="I48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" t="s">
-        <v>339</v>
-      </c>
-      <c r="L48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>25</v>
       </c>
       <c r="B49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" t="s">
         <v>340</v>
-      </c>
-      <c r="C49" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" t="s">
-        <v>342</v>
-      </c>
-      <c r="E49" t="s">
-        <v>343</v>
       </c>
       <c r="F49" t="s">
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H49" t="s">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
       </c>
-      <c r="M49" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="M49" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>25</v>
       </c>
       <c r="B50" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" t="s">
         <v>347</v>
-      </c>
-      <c r="C50" t="s">
-        <v>348</v>
-      </c>
-      <c r="D50" t="s">
-        <v>349</v>
-      </c>
-      <c r="E50" t="s">
-        <v>350</v>
       </c>
       <c r="F50" t="s">
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H50" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
       </c>
-      <c r="M50" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="M50" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D51" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E51" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H51" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
       </c>
-      <c r="M51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="M51" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C52" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E52" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F52" t="s">
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H52" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>361</v>
       </c>
       <c r="K52" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
       </c>
-      <c r="M52" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="M52" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D53" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F53" t="s">
         <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
       </c>
-      <c r="M53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="M53" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H54" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="K54" t="s">
-        <v>379</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
       </c>
-      <c r="M54" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="M54" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" t="s">
+        <v>378</v>
+      </c>
+      <c r="E55" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s">
+        <v>281</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
         <v>380</v>
       </c>
-      <c r="C55" t="s">
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D55" t="s">
-        <v>382</v>
-      </c>
-      <c r="E55" t="s">
-        <v>383</v>
-      </c>
-      <c r="F55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" t="s">
-        <v>284</v>
-      </c>
-      <c r="H55" t="s">
-        <v>384</v>
-      </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" t="s">
-        <v>385</v>
-      </c>
-      <c r="L55" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D56" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E56" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F56" t="s">
         <v>46</v>
       </c>
       <c r="G56" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>387</v>
+      </c>
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" t="s">
         <v>390</v>
       </c>
-      <c r="H56" t="s">
+      <c r="D57" t="s">
         <v>391</v>
       </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="E57" t="s">
         <v>392</v>
-      </c>
-      <c r="L56" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" t="s">
-        <v>393</v>
-      </c>
-      <c r="C57" t="s">
-        <v>394</v>
-      </c>
-      <c r="D57" t="s">
-        <v>395</v>
-      </c>
-      <c r="E57" t="s">
-        <v>396</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>394</v>
       </c>
       <c r="K57" t="s">
-        <v>399</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
       </c>
-      <c r="M57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="M57" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
       </c>
       <c r="G58" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H58" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
       </c>
-      <c r="M58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="M58" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C59" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F59" t="s">
         <v>54</v>
       </c>
       <c r="G59" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H59" t="s">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
       </c>
-      <c r="M59" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="M59" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C60" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>412</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
       </c>
-      <c r="M60" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="M60" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F61" t="s">
         <v>54</v>
       </c>
       <c r="G61" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H61" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="K61" t="s">
-        <v>423</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="M61" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="M61" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E62" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F62" t="s">
         <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H62" t="s">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="K62" t="s">
-        <v>430</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
       </c>
-      <c r="M62" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="M62" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C63" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E63" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H63" t="s">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="M63" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D64" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E64" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H64" t="s">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="K64" t="s">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="M64" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="M64" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C65" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H65" t="s">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>441</v>
       </c>
       <c r="K65" t="s">
-        <v>446</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
       </c>
-      <c r="M65" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="M65" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C66" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D66" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H66" t="s">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>447</v>
       </c>
       <c r="K66" t="s">
-        <v>452</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
       </c>
-      <c r="M66" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="M66" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
+        <v>449</v>
+      </c>
+      <c r="C67" t="s">
+        <v>450</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
+        <v>451</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
         <v>454</v>
       </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C68" t="s">
         <v>455</v>
       </c>
-      <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="D68" t="s">
         <v>456</v>
       </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="E68" t="s">
         <v>457</v>
       </c>
-      <c r="L67" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" t="s">
         <v>458</v>
       </c>
-      <c r="C68" t="s">
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
         <v>459</v>
       </c>
-      <c r="D68" t="s">
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E68" t="s">
-        <v>461</v>
-      </c>
-      <c r="F68" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" t="s">
-        <v>462</v>
-      </c>
-      <c r="H68" t="s">
-        <v>463</v>
-      </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" t="s">
-        <v>464</v>
-      </c>
-      <c r="L68" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C69" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E69" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
       </c>
       <c r="G69" t="s">
+        <v>465</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>466</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>468</v>
+      </c>
+      <c r="C70" t="s">
         <v>469</v>
       </c>
-      <c r="H69" t="s">
+      <c r="D70" t="s">
         <v>470</v>
       </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="E70" t="s">
         <v>471</v>
       </c>
-      <c r="L69" t="s">
-        <v>23</v>
-      </c>
-      <c r="M69" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s">
         <v>472</v>
       </c>
-      <c r="C70" t="s">
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
         <v>473</v>
       </c>
-      <c r="D70" t="s">
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E70" t="s">
-        <v>475</v>
-      </c>
-      <c r="F70" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" t="s">
-        <v>476</v>
-      </c>
-      <c r="H70" t="s">
-        <v>477</v>
-      </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" t="s">
-        <v>478</v>
-      </c>
-      <c r="L70" t="s">
-        <v>23</v>
-      </c>
-      <c r="M70" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>25</v>
       </c>
       <c r="B71" t="s">
+        <v>475</v>
+      </c>
+      <c r="C71" t="s">
+        <v>476</v>
+      </c>
+      <c r="D71" t="s">
+        <v>477</v>
+      </c>
+      <c r="E71" t="s">
+        <v>478</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s">
         <v>479</v>
       </c>
-      <c r="C71" t="s">
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
         <v>480</v>
       </c>
-      <c r="D71" t="s">
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E71" t="s">
-        <v>482</v>
-      </c>
-      <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s">
-        <v>483</v>
-      </c>
-      <c r="H71" t="s">
-        <v>484</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" t="s">
-        <v>485</v>
-      </c>
-      <c r="L71" t="s">
-        <v>23</v>
-      </c>
-      <c r="M71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C72" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E72" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H72" t="s">
-        <v>491</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>487</v>
       </c>
       <c r="K72" t="s">
-        <v>492</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="M72" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C73" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E73" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H73" t="s">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>493</v>
       </c>
       <c r="K73" t="s">
-        <v>498</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
       </c>
-      <c r="M73" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="M73" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C74" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F74" t="s">
         <v>38</v>
@@ -5922,1223 +5996,1139 @@
         <v>31</v>
       </c>
       <c r="H74" t="s">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>498</v>
       </c>
       <c r="K74" t="s">
-        <v>503</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
       </c>
-      <c r="M74" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="M74" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
+        <v>500</v>
+      </c>
+      <c r="C75" t="s">
+        <v>501</v>
+      </c>
+      <c r="D75" t="s">
+        <v>502</v>
+      </c>
+      <c r="E75" t="s">
+        <v>503</v>
+      </c>
+      <c r="F75" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s">
         <v>504</v>
       </c>
-      <c r="C75" t="s">
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
         <v>505</v>
       </c>
-      <c r="D75" t="s">
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E75" t="s">
-        <v>507</v>
-      </c>
-      <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s">
-        <v>508</v>
-      </c>
-      <c r="H75" t="s">
-        <v>509</v>
-      </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" t="s">
-        <v>510</v>
-      </c>
-      <c r="L75" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C76" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E76" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F76" t="s">
         <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H76" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s">
-        <v>517</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
       </c>
-      <c r="M76" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="M76" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>25</v>
       </c>
       <c r="B77" t="s">
+        <v>514</v>
+      </c>
+      <c r="C77" t="s">
+        <v>515</v>
+      </c>
+      <c r="D77" t="s">
+        <v>516</v>
+      </c>
+      <c r="E77" t="s">
+        <v>517</v>
+      </c>
+      <c r="F77" t="s">
+        <v>117</v>
+      </c>
+      <c r="G77" t="s">
         <v>518</v>
       </c>
-      <c r="C77" t="s">
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
         <v>519</v>
       </c>
-      <c r="D77" t="s">
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E77" t="s">
-        <v>521</v>
-      </c>
-      <c r="F77" t="s">
-        <v>118</v>
-      </c>
-      <c r="G77" t="s">
-        <v>522</v>
-      </c>
-      <c r="H77" t="s">
-        <v>523</v>
-      </c>
-      <c r="I77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" t="s">
-        <v>524</v>
-      </c>
-      <c r="L77" t="s">
-        <v>23</v>
-      </c>
-      <c r="M77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C78" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E78" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F78" t="s">
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H78" t="s">
-        <v>528</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="K78" t="s">
-        <v>529</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
       </c>
-      <c r="M78" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="M78" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C79" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H79" t="s">
-        <v>531</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>527</v>
       </c>
       <c r="K79" t="s">
-        <v>532</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
       </c>
-      <c r="M79" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="M79" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C80" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D80" t="s">
         <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F80" t="s">
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H80" t="s">
-        <v>536</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>532</v>
       </c>
       <c r="K80" t="s">
-        <v>537</v>
+        <v>22</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
       </c>
-      <c r="M80" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="M80" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C81" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H81" t="s">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="K81" t="s">
-        <v>542</v>
+        <v>22</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
       </c>
-      <c r="M81" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="M81" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>538</v>
+      </c>
+      <c r="C82" t="s">
+        <v>539</v>
+      </c>
+      <c r="D82" t="s">
+        <v>540</v>
+      </c>
+      <c r="E82" t="s">
+        <v>541</v>
+      </c>
+      <c r="F82" t="s">
+        <v>117</v>
+      </c>
+      <c r="G82" t="s">
+        <v>372</v>
+      </c>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>542</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C82" t="s">
-        <v>544</v>
-      </c>
-      <c r="D82" t="s">
-        <v>545</v>
-      </c>
-      <c r="E82" t="s">
-        <v>546</v>
-      </c>
-      <c r="F82" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" t="s">
-        <v>376</v>
-      </c>
-      <c r="H82" t="s">
-        <v>547</v>
-      </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" t="s">
-        <v>548</v>
-      </c>
-      <c r="L82" t="s">
-        <v>23</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C83" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H83" t="s">
-        <v>552</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>547</v>
       </c>
       <c r="K83" t="s">
-        <v>553</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
         <v>23</v>
       </c>
-      <c r="M83" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="M83" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>25</v>
       </c>
       <c r="B84" t="s">
+        <v>549</v>
+      </c>
+      <c r="C84" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" t="s">
+        <v>551</v>
+      </c>
+      <c r="E84" t="s">
+        <v>552</v>
+      </c>
+      <c r="F84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s">
+        <v>553</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
         <v>554</v>
       </c>
-      <c r="C84" t="s">
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D84" t="s">
-        <v>556</v>
-      </c>
-      <c r="E84" t="s">
-        <v>557</v>
-      </c>
-      <c r="F84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" t="s">
-        <v>558</v>
-      </c>
-      <c r="H84" t="s">
-        <v>559</v>
-      </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" t="s">
-        <v>560</v>
-      </c>
-      <c r="L84" t="s">
-        <v>23</v>
-      </c>
-      <c r="M84" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E85" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F85" t="s">
         <v>54</v>
       </c>
       <c r="G85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H85" t="s">
-        <v>564</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>18</v>
+        <v>559</v>
       </c>
       <c r="K85" t="s">
-        <v>565</v>
+        <v>22</v>
       </c>
       <c r="L85" t="s">
         <v>23</v>
       </c>
-      <c r="M85" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="M85" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C86" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D86" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E86" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F86" t="s">
         <v>54</v>
       </c>
       <c r="G86" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H86" t="s">
-        <v>570</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>565</v>
       </c>
       <c r="K86" t="s">
-        <v>571</v>
+        <v>22</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
       </c>
-      <c r="M86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="M86" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D87" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E87" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F87" t="s">
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H87" t="s">
-        <v>577</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>572</v>
       </c>
       <c r="K87" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
       </c>
-      <c r="M87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="M87" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C88" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D88" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E88" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G88" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H88" t="s">
-        <v>582</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>577</v>
       </c>
       <c r="K88" t="s">
-        <v>583</v>
+        <v>22</v>
       </c>
       <c r="L88" t="s">
         <v>23</v>
       </c>
-      <c r="M88" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="M88" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>25</v>
       </c>
       <c r="B89" t="s">
+        <v>579</v>
+      </c>
+      <c r="C89" t="s">
+        <v>580</v>
+      </c>
+      <c r="D89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" t="s">
+        <v>581</v>
+      </c>
+      <c r="F89" t="s">
+        <v>82</v>
+      </c>
+      <c r="G89" t="s">
+        <v>582</v>
+      </c>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>583</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C89" t="s">
-        <v>585</v>
-      </c>
-      <c r="D89" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" t="s">
-        <v>586</v>
-      </c>
-      <c r="F89" t="s">
-        <v>83</v>
-      </c>
-      <c r="G89" t="s">
-        <v>587</v>
-      </c>
-      <c r="H89" t="s">
-        <v>588</v>
-      </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" t="s">
-        <v>589</v>
-      </c>
-      <c r="L89" t="s">
-        <v>23</v>
-      </c>
-      <c r="M89" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C90" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E90" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G90" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H90" t="s">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="K90" t="s">
-        <v>594</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
       </c>
-      <c r="M90" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="M90" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D91" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E91" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F91" t="s">
         <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H91" t="s">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>595</v>
       </c>
       <c r="K91" t="s">
-        <v>601</v>
+        <v>22</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
       </c>
-      <c r="M91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="M91" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>25</v>
       </c>
       <c r="B92" t="s">
+        <v>597</v>
+      </c>
+      <c r="C92" t="s">
+        <v>598</v>
+      </c>
+      <c r="D92" t="s">
+        <v>516</v>
+      </c>
+      <c r="E92" t="s">
+        <v>599</v>
+      </c>
+      <c r="F92" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" t="s">
+        <v>600</v>
+      </c>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>601</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C92" t="s">
-        <v>603</v>
-      </c>
-      <c r="D92" t="s">
-        <v>520</v>
-      </c>
-      <c r="E92" t="s">
-        <v>604</v>
-      </c>
-      <c r="F92" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" t="s">
-        <v>605</v>
-      </c>
-      <c r="H92" t="s">
-        <v>606</v>
-      </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>18</v>
-      </c>
-      <c r="K92" t="s">
-        <v>607</v>
-      </c>
-      <c r="L92" t="s">
-        <v>23</v>
-      </c>
-      <c r="M92" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C93" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D93" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E93" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H93" t="s">
-        <v>612</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>607</v>
       </c>
       <c r="K93" t="s">
-        <v>613</v>
+        <v>22</v>
       </c>
       <c r="L93" t="s">
         <v>23</v>
       </c>
-      <c r="M93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="M93" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C94" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D94" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E94" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F94" t="s">
         <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H94" t="s">
-        <v>618</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>612</v>
       </c>
       <c r="K94" t="s">
-        <v>619</v>
+        <v>22</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
       </c>
-      <c r="M94" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="M94" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="H95" t="s">
-        <v>622</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>615</v>
       </c>
       <c r="K95" t="s">
-        <v>623</v>
+        <v>22</v>
       </c>
       <c r="L95" t="s">
         <v>23</v>
       </c>
-      <c r="M95" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="M95" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" t="s">
         <v>243</v>
       </c>
-      <c r="D96" t="s">
-        <v>244</v>
-      </c>
-      <c r="E96" t="s">
-        <v>245</v>
-      </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H96" t="s">
-        <v>626</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>619</v>
       </c>
       <c r="K96" t="s">
-        <v>627</v>
+        <v>22</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
       </c>
-      <c r="M96" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="M96" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C97" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D97" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E97" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H97" t="s">
-        <v>632</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
+        <v>625</v>
       </c>
       <c r="K97" t="s">
-        <v>633</v>
+        <v>22</v>
       </c>
       <c r="L97" t="s">
         <v>23</v>
       </c>
-      <c r="M97" t="s">
-        <v>24</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="M97" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C98" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D98" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E98" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G98" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="H98" t="s">
-        <v>639</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>18</v>
+        <v>632</v>
       </c>
       <c r="K98" t="s">
-        <v>640</v>
+        <v>22</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
       </c>
-      <c r="M98" t="s">
-        <v>24</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="M98" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C99" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D99" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E99" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H99" t="s">
-        <v>644</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>18</v>
+        <v>637</v>
       </c>
       <c r="K99" t="s">
-        <v>645</v>
+        <v>22</v>
       </c>
       <c r="L99" t="s">
         <v>23</v>
       </c>
-      <c r="M99" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="M99" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C100" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G100" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H100" t="s">
-        <v>650</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>643</v>
       </c>
       <c r="K100" t="s">
-        <v>651</v>
+        <v>22</v>
       </c>
       <c r="L100" t="s">
         <v>23</v>
       </c>
-      <c r="M100" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="M100" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C101" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D101" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E101" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F101" t="s">
         <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="H101" t="s">
-        <v>657</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
+        <v>650</v>
       </c>
       <c r="K101" t="s">
-        <v>658</v>
+        <v>22</v>
       </c>
       <c r="L101" t="s">
         <v>23</v>
       </c>
-      <c r="M101" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>752</v>
+      <c r="M101" s="2" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid label" error="Please choose from the dropdown." promptTitle="Label" prompt="Select: same / different / unsure" sqref="A2:A101" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid label" error="Please choose from the dropdown." promptTitle="Label" prompt="Select: same / different / unsure" sqref="A2:A101">
       <formula1>"same,different,unsure"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>